--- a/c.xlsx
+++ b/c.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41470F9-66F3-B54A-835D-1B8C8EB00B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,16 +331,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2</v>
       </c>

--- a/c.xlsx
+++ b/c.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41470F9-66F3-B54A-835D-1B8C8EB00B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA26BCD-04B4-E145-925E-B36461831D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
